--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2880BA84-D0A4-4A04-8CDD-718BB6513D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358218CE-63BC-48ED-81CC-64C7A796EC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Jbpm Revision</t>
   </si>
   <si>
-    <t>About Rest Api ,Email concepts.</t>
-  </si>
-  <si>
     <t>Revised about spring ,servlet ,spring mvc concepts.</t>
   </si>
   <si>
@@ -75,6 +72,48 @@
   </si>
   <si>
     <t>Java Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Spring concepts,Dependency injection,about application context </t>
+  </si>
+  <si>
+    <t>Jbpm training for get post method,container,Rest api with examples</t>
+  </si>
+  <si>
+    <t>Revised spring concepts</t>
+  </si>
+  <si>
+    <t>practiced the training concepts</t>
+  </si>
+  <si>
+    <t>Clarification session</t>
+  </si>
+  <si>
+    <t>Studied About Rest Api ,Email concepts,Spring basics</t>
+  </si>
+  <si>
+    <t>Java clarification for doubts in database connection,server.</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>About spring and sprinboot basics</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Java concepts,spring concepts,Jbpm practiced</t>
+  </si>
+  <si>
+    <t>8hrs</t>
   </si>
 </sst>
 </file>
@@ -577,7 +616,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -639,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
@@ -652,23 +691,23 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
@@ -679,10 +718,14 @@
         <v>44379</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
@@ -690,8 +733,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
@@ -699,8 +746,12 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
@@ -708,29 +759,55 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44380</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358218CE-63BC-48ED-81CC-64C7A796EC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E926A37-0108-4AEC-9195-AF9FA8DB1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>SlNo</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>8hrs</t>
+  </si>
+  <si>
+    <t>About springboot concepts,postman application function</t>
+  </si>
+  <si>
+    <t>Jbpm concepts practiced and studied about get post method and kie server functions</t>
+  </si>
+  <si>
+    <t>Revised sprinboot concepts</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>Watched record session for clarification</t>
+  </si>
+  <si>
+    <t>Jbpm session</t>
   </si>
 </sst>
 </file>
@@ -616,7 +634,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,44 +828,80 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44382</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44383</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E926A37-0108-4AEC-9195-AF9FA8DB1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EABED8-BE75-4D75-99F4-6B383E998B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -132,6 +132,33 @@
   </si>
   <si>
     <t>Jbpm session</t>
+  </si>
+  <si>
+    <t>About springboot concepts</t>
+  </si>
+  <si>
+    <t>Drools  concepts</t>
+  </si>
+  <si>
+    <t>Revised springboot concepts</t>
+  </si>
+  <si>
+    <t>Jbpm task</t>
+  </si>
+  <si>
+    <t>Practiced email tas and rest node task</t>
+  </si>
+  <si>
+    <t>About rest template,service , controller class in springboot</t>
+  </si>
+  <si>
+    <t>Concepts trained using usertask,restnode,emailnode</t>
+  </si>
+  <si>
+    <t>Practiced using usertask,restnode,emailnode</t>
+  </si>
+  <si>
+    <t>Revised rest template and service ,controller concepts</t>
   </si>
 </sst>
 </file>
@@ -633,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,8 +920,12 @@
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
@@ -902,50 +933,94 @@
       <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44384</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
